--- a/src/main/resources/excel/CpBusinessLevel.xlsx
+++ b/src/main/resources/excel/CpBusinessLevel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yance/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yance/IdeaProjects/iptv_sas/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A4FEB5-1D1F-CB4C-9242-0C461A58B316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B5AB13-C9B6-1340-A8B9-95432D1988A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{54F3B5B4-EF37-4138-9B10-99DE92BF301C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28300" windowHeight="18000" xr2:uid="{54F3B5B4-EF37-4138-9B10-99DE92BF301C}"/>
   </bookViews>
   <sheets>
     <sheet name="业务级结算&amp;业务定比例结算" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${allmoney}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${cpName}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -144,6 +140,10 @@
   </si>
   <si>
     <t>制表时间：${nowTime}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${allMoney}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -373,29 +373,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="57" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +979,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -993,24 +993,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="43" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1035,48 +1035,48 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="49" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
       <c r="B6" s="1" t="s">
@@ -1091,36 +1091,36 @@
     </row>
     <row r="7" spans="1:9" ht="14" customHeight="1"/>
     <row r="8" spans="1:9" ht="14" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="14" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="14" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
@@ -1128,23 +1128,23 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="16" t="s">
-        <v>26</v>
+      <c r="G13" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
